--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value892.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value892.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.480453797775547</v>
+        <v>3.318907260894775</v>
       </c>
       <c r="B1">
-        <v>2.356140077819773</v>
+        <v>2.263653516769409</v>
       </c>
       <c r="C1">
-        <v>2.739943142669597</v>
+        <v>1.616185903549194</v>
       </c>
       <c r="D1">
-        <v>3.159818064043747</v>
+        <v>1.469524264335632</v>
       </c>
       <c r="E1">
-        <v>2.033765781046024</v>
+        <v>1.457105040550232</v>
       </c>
     </row>
   </sheetData>
